--- a/avia_par_dme.xlsx
+++ b/avia_par_dme.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dimka/Desktop/HSA network design/TNDP_Russia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2D3F63-0895-CF43-B5A6-9B084A9EBBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948913C8-114B-A742-956F-55E1D3EAC984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8360" yWindow="5120" windowWidth="25240" windowHeight="13940" xr2:uid="{97FBD67F-149C-9447-853F-5ADABDA92FB6}"/>
   </bookViews>
   <sheets>
     <sheet name="avia_par_dme" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -110,9 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,7 +429,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -486,7 +485,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -503,7 +502,7 @@
         <v>5</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -520,7 +519,7 @@
         <v>6</v>
       </c>
       <c r="E5">
-        <v>2522</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -536,8 +535,8 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
-        <v>4100</v>
+      <c r="E6">
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -554,7 +553,7 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>2727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -571,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>895</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -588,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>3109</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -622,7 +621,7 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>3012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -639,7 +638,7 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>2270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -656,7 +655,7 @@
         <v>6</v>
       </c>
       <c r="E13">
-        <v>378316</v>
+        <v>17280</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -673,7 +672,7 @@
         <v>7</v>
       </c>
       <c r="E14">
-        <v>615015</v>
+        <v>25920</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -690,7 +689,7 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>409069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -707,7 +706,7 @@
         <v>9</v>
       </c>
       <c r="E16">
-        <v>134262</v>
+        <v>60480</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -724,7 +723,7 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>466360</v>
+        <v>25920</v>
       </c>
     </row>
   </sheetData>
